--- a/results/I2_N10_T100_C350_0_P2_res.xlsx
+++ b/results/I2_N10_T100_C350_0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>896.7844139021489</v>
+        <v>30.19742239378572</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0559999942779541</v>
+        <v>0.01799988746643066</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.22695101622659</v>
+        <v>30.16742239378572</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.159584464343332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.157047350270402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>867.5599999999954</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,116 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -799,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -810,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -865,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1044,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1110,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.37159060173646</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.76592070603971</v>
+        <v>36.71579249669672</v>
       </c>
     </row>
     <row r="7">
@@ -1126,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.66251128771907</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.02273533088621</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.72107346555759</v>
+        <v>34.7210734655559</v>
       </c>
     </row>
     <row r="10">
@@ -1150,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.45367071955468</v>
+        <v>34.40354251021169</v>
       </c>
     </row>
     <row r="11">
@@ -1158,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>31.94987179065701</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>42.69031870136349</v>
+        <v>32.66758337047729</v>
       </c>
     </row>
     <row r="14">
@@ -1182,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.84762731579396</v>
+        <v>40.23171342868595</v>
       </c>
     </row>
     <row r="15">
@@ -1190,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>40.83745476036248</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,174 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>12</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>12</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>198.2699999999999</v>
+        <v>198.2700000000016</v>
       </c>
     </row>
     <row r="9">
@@ -1523,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>197.9849999999998</v>
+        <v>197.9850000000015</v>
       </c>
     </row>
     <row r="10">
@@ -1611,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>380.34</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="18">
@@ -1622,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>395.525</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="19">
@@ -1633,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>350.56</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="20">
@@ -1644,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>384.78</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="21">
@@ -1655,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>358.69</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="22">
@@ -1666,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>226.0399999999994</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="23">
@@ -1677,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>247.1799999999994</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="24">
@@ -1688,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>221.8550000000001</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="25">
@@ -1699,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>238.4549999999994</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="26">
@@ -1710,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>224.4750000000001</v>
+        <v>297.3649999999997</v>
       </c>
     </row>
     <row r="27">
@@ -1721,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>402.325</v>
+        <v>69.88000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1732,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>417.99</v>
+        <v>76.32000000000022</v>
       </c>
     </row>
     <row r="29">
@@ -1743,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>410.1</v>
+        <v>72.41000000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1754,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>422.66</v>
+        <v>72.64500000000022</v>
       </c>
     </row>
     <row r="31">
@@ -1765,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>410.81</v>
+        <v>72.89000000000021</v>
       </c>
     </row>
     <row r="32">
@@ -1776,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>333.42</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1787,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>359.42</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1798,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>315.645</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1809,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>347.29</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1820,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>319.255</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1831,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>274.4950000000007</v>
+        <v>274.4950000000011</v>
       </c>
     </row>
     <row r="38">
@@ -1842,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>282.9900000000007</v>
+        <v>282.9900000000014</v>
       </c>
     </row>
     <row r="39">
@@ -1853,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>275.9600000000007</v>
+        <v>275.9600000000014</v>
       </c>
     </row>
     <row r="40">
@@ -1875,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>285.0050000000007</v>
+        <v>285.0050000000018</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>153.4099999999999</v>
+        <v>223.2900000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1897,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>167.1249999999999</v>
+        <v>243.4450000000002</v>
       </c>
     </row>
     <row r="44">
@@ -1908,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>139.5349999999999</v>
+        <v>211.9450000000002</v>
       </c>
     </row>
     <row r="45">
@@ -1919,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>154.5</v>
+        <v>227.1450000000002</v>
       </c>
     </row>
     <row r="46">
@@ -1930,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>143.6599999999999</v>
+        <v>216.55</v>
       </c>
     </row>
     <row r="47">
@@ -1941,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>85.48500000000051</v>
+        <v>155.3650000000007</v>
       </c>
     </row>
     <row r="48">
@@ -1952,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>87.9650000000005</v>
+        <v>164.2850000000007</v>
       </c>
     </row>
     <row r="49">
@@ -1963,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>79.71500000000052</v>
+        <v>152.1250000000007</v>
       </c>
     </row>
     <row r="50">
@@ -1974,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>90.7300000000005</v>
+        <v>163.3750000000007</v>
       </c>
     </row>
     <row r="51">
@@ -1985,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>84.73000000000052</v>
+        <v>157.6200000000007</v>
       </c>
     </row>
     <row r="52">
@@ -1996,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>332.445</v>
+        <v>332.4450000000004</v>
       </c>
     </row>
     <row r="53">
@@ -2007,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>341.67</v>
+        <v>341.6700000000007</v>
       </c>
     </row>
     <row r="54">
@@ -2018,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>337.69</v>
+        <v>337.6900000000007</v>
       </c>
     </row>
     <row r="55">
@@ -2040,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>337.92</v>
+        <v>337.9200000000011</v>
       </c>
     </row>
     <row r="57">
@@ -2051,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>380.34</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="58">
@@ -2062,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>395.525</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="59">
@@ -2073,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>350.56</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="60">
@@ -2084,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>384.78</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="61">
@@ -2095,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>358.69</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="62">
@@ -2106,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>402.325</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="63">
@@ -2117,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>417.99</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="64">
@@ -2128,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>410.1</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="65">
@@ -2139,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>422.66</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="66">
@@ -2150,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>410.81</v>
+        <v>297.3649999999997</v>
       </c>
     </row>
     <row r="67">
@@ -2161,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>332.4450000000004</v>
       </c>
     </row>
     <row r="68">
@@ -2172,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>341.6700000000007</v>
       </c>
     </row>
     <row r="69">
@@ -2183,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>337.6900000000007</v>
       </c>
     </row>
     <row r="70">
@@ -2194,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>350.015</v>
       </c>
     </row>
     <row r="71">
@@ -2205,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>337.9200000000011</v>
       </c>
     </row>
   </sheetData>
@@ -2252,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>30.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2263,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>45.525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2274,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2285,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>34.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2296,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2307,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.32499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2318,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>67.98999999999927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2329,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>60.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2340,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>72.659999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2351,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>60.80999999999938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2395,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="16">
@@ -3006,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3033,133 +2755,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T100_C350_0_P2_res.xlsx
+++ b/results/I2_N10_T100_C350_0_P2_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01799988746643066</v>
+        <v>0.01699995994567871</v>
       </c>
     </row>
     <row r="5">
